--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2334.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2334.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.985403747738764</v>
+        <v>0.9677374958992004</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.904264509677887</v>
       </c>
       <c r="C1">
-        <v>1.958137930079838</v>
+        <v>0.7815846800804138</v>
       </c>
       <c r="D1">
-        <v>0.7251217175710932</v>
+        <v>0.83417809009552</v>
       </c>
       <c r="E1">
-        <v>0.4890713758608206</v>
+        <v>0.9995025396347046</v>
       </c>
     </row>
   </sheetData>
